--- a/AutoInterface/web/demofile/interface.xlsx
+++ b/AutoInterface/web/demofile/interface.xlsx
@@ -15,13 +15,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>依赖id</t>
+  </si>
+  <si>
+    <t>依赖数据</t>
+  </si>
+  <si>
+    <t>依赖数据所属字段</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -32,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -46,7 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -72,13 +159,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -98,8 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +188,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,9 +211,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,6 +233,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -144,40 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,19 +273,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,151 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,17 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,34 +501,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +522,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,158 +549,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,22 +1069,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
